--- a/upload/Example Results Analysis.xlsx
+++ b/upload/Example Results Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Git 2\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CEB511-485D-477F-9C8D-D90D35FE592A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA10EF-F941-4395-92C8-9FD38829F72B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="28800" windowHeight="7935" tabRatio="481" xr2:uid="{658C255A-80AD-4DA1-A841-26B0F902655A}"/>
+    <workbookView xWindow="4800" yWindow="60" windowWidth="23940" windowHeight="13020" tabRatio="481" xr2:uid="{658C255A-80AD-4DA1-A841-26B0F902655A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensemble=01" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>out of TW</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +786,12 @@
       </c>
       <c r="H4" t="s">
         <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
